--- a/Mandatory Problem/Docs/Charts_MandatoryProblem.xlsx
+++ b/Mandatory Problem/Docs/Charts_MandatoryProblem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\friedlma\source\repos\algodat-python-ss24\Mandatory Problem\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{571AD8CD-07DC-4455-A88B-C51401826531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BD7D5A-06B5-4E4E-B7CA-1DD7A638B2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{7F417AD2-CAFC-4C9C-BAAA-AA8DDE4CCE76}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
     <t xml:space="preserve">Brute-Force: </t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>KMP:</t>
+  </si>
+  <si>
+    <t>three_word_pattern (24)</t>
   </si>
 </sst>
 </file>
@@ -154,6 +157,7679 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Brute-Force</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> - fixed pattern length</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>average time:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100510</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200969</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1004879</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2009765</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.24397182464599E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3029260635375897E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.91858053207397E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3898391723632804E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2661345005035399E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.3593752384185797E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24891368150710999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-014A-4443-A19D-F3A193208B5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>best time:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100510</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200969</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1004879</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2009765</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.5926361083984299E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2492828369140603E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.65915489196777E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3928108215331997E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7136335372924801E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5236549377441406E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.176832675933837</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-014A-4443-A19D-F3A193208B5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>worst time:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100510</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200969</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1004879</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2009765</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.2629241943359299E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6061534881591701E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7985782623290998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.24998092651367E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0838718414306599E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.136443376541137</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38880181312561002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-014A-4443-A19D-F3A193208B5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2320944"/>
+        <c:axId val="2321424"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2320944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>search</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t>  text length</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2321424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2321424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> in sec</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2320944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0000000000000002E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Brute</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t>-Force - fixed Search text length</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>average time:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$10:$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>three_word_pattern (24)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.3593752384185797E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0021114349365203E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8590755462646401E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.8483324050903298E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6284668445587095E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-08B0-422B-9318-19C91847CF06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>best time:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$10:$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>three_word_pattern (24)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$12:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.5236549377441406E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4847450256347601E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5521697998046806E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4681034088134696E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2388648986816406E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-08B0-422B-9318-19C91847CF06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>worst time: </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$10:$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>three_word_pattern (24)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.136443376541137</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.107033014297485</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4286441802978502E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3084812164306599E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4849596023559501E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-08B0-422B-9318-19C91847CF06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1728940272"/>
+        <c:axId val="38433056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1728940272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>pattern</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> length</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="38433056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="38433056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="6.0000000000000012E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> in sec</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1728940272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5.000000000000001E-3"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>KMP</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> - fixed pattern length</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>average time:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100510</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200969</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1004879</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2009765</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.0300149917602499E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7761402130126899E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8635559082031199E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.8322019577026303E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7596509456634501E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9563574790954503E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23259123086929301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE6D-4D64-A03D-B87F9C899E6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>best time:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100510</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200969</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1004879</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2009765</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.5711784362792901E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8368186950683496E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5597343444824199E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8790187835693307E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.59022808074951E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.1858158111572196E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16209459304809501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FE6D-4D64-A03D-B87F9C899E6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>worst time:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100510</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200969</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1004879</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2009765</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.2057037353515598E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.908540725708E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.78665733337402E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4481782913207999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4006128311157199E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15912890434265101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.40482306480407698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FE6D-4D64-A03D-B87F9C899E6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="37480496"/>
+        <c:axId val="2317056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="37480496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>search text </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> length</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2317056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2317056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> in sec</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="37480496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0000000000000002E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>KMP</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> - fixed search text length</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>average time:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$22:$F$22</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>three_word_pattern (24)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$23:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.9563574790954503E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4296650886535596E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6782894134521393E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3251264095306393E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2243692874908403E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EA53-4D4C-AEE4-90514A8AC7F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>best time:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$22:$F$22</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>three_word_pattern (24)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.1858158111572196E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0069541931152302E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0202579498291002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0970048904418904E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.9042911529541002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EA53-4D4C-AEE4-90514A8AC7F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>worst time: </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$22:$F$22</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>three_word_pattern (24)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$25:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.15912890434265101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5619440078735296E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.101149797439575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7377309799194294E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.4869852066039997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EA53-4D4C-AEE4-90514A8AC7F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="137972464"/>
+        <c:axId val="137972944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="137972464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>pattern</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> length</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="137972944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="137972944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="6.0000000000000012E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> in sec</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="137972464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5.000000000000001E-3"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Boyer-Moore</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> -  fixed pattern length </a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>average time:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$28:$H$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100510</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200969</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1004879</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2009765</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$29:$H$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.40953063964843E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.65314292907714E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8341236114501906E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.8341236114501906E-5</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>3.9624691009521398E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>8.2195281982421799E-4</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.17326974868774E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A324-4A7F-A1D2-38F7623CECC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>best time:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$28:$H$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100510</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200969</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1004879</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2009765</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$30:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.38282775878906E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2200088500976502E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2731246948242106E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.2731246948242106E-5</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>3.7956237792968701E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>7.4315071105956999E-4</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>7.4467658996581997E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A324-4A7F-A1D2-38F7623CECC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>worst time:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$28:$H$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100510</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200969</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1004879</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2009765</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$31:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>2.1934509277343699E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4305114746093701E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9502639770507799E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9502639770507799E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1893463134765603E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.34921073913574E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3050308227539E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A324-4A7F-A1D2-38F7623CECC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="39477488"/>
+        <c:axId val="39480368"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="39477488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>search</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> text length</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="39480368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="39480368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>time in sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="39477488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0000000000000002E-3"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Boyer-Moore</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> - fixed search text length</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>average time:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$34:$F$34</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>three_word_pattern (24)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$35:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.1442632675170897E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1345567703247001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4359514713287299E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5133039951324401E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3181343078613202E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-01D1-4395-ACEF-F8EDA3B7AA9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>best time:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$34:$F$34</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>three_word_pattern (24)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$36:$F$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.68857383728027E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5927505493164002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.35753154754638E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3822546005248999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9756507873535104E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-01D1-4395-ACEF-F8EDA3B7AA9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>worst time: </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$34:$F$34</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>three_word_pattern (24)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$37:$F$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.3869228363037101E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3391666412353498E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.66289806365966E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8218030929565398E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3186626434326102E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-01D1-4395-ACEF-F8EDA3B7AA9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="5573616"/>
+        <c:axId val="5574576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="5573616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>pattern</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> length</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5574576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="5574576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> in sec</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5573616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A486822-64E0-C580-B0E1-9B5580F9A9B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>13335</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>196215</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8B25520-183F-D849-A12E-251C9AA3FCEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3E39A2D-684B-8352-FE86-1A54763688CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FD09CFC-70F4-7605-A782-4C748F0C6A14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F6AA107-60C9-B7FA-AA6B-D7E51B38A5DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D0ED6F5-E853-E569-DE2D-AAD8CD44D644}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -475,8 +8151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DC38E2-23AA-408D-9DD4-8974B2C6114F}">
   <dimension ref="A3:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="I55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U96" sqref="U96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,8 +8295,8 @@
       <c r="E10">
         <v>5</v>
       </c>
-      <c r="F10">
-        <v>24</v>
+      <c r="F10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -813,8 +8489,8 @@
       <c r="E22">
         <v>5</v>
       </c>
-      <c r="F22">
-        <v>24</v>
+      <c r="F22" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1007,8 +8683,8 @@
       <c r="E34">
         <v>5</v>
       </c>
-      <c r="F34">
-        <v>24</v>
+      <c r="F34" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1074,5 +8750,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>